--- a/£CINE.xlsx
+++ b/£CINE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1933825D-2559-45E8-891A-3BB7D9E8A03C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757D9ACB-86C7-4816-B53A-0DA1F49AC878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{5BB4D934-5E52-4F16-8511-45DA4E92E779}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="165">
   <si>
     <t>£CINE</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>WSJ report breaks news that CINE is preparing to file for bankruptcy, shares drop</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -850,7 +853,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -998,6 +1001,39 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,15 +1041,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1026,25 +1053,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1642,7 +1651,7 @@
   <dimension ref="B2:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1662,35 +1671,35 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="F5" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
-      <c r="K5" s="81" t="s">
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="K5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14">
-        <v>0.187</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D6" s="44"/>
       <c r="F6" s="25" t="s">
@@ -1699,7 +1708,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
-      <c r="K6" s="99">
+      <c r="K6" s="82">
         <v>44774</v>
       </c>
       <c r="L6" s="34" t="s">
@@ -1743,7 +1752,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>256.19</v>
+        <v>36.99</v>
       </c>
       <c r="D8" s="44"/>
       <c r="F8" s="9" t="s">
@@ -1779,7 +1788,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
-      <c r="K9" s="99">
+      <c r="K9" s="82">
         <v>44743</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -1857,7 +1866,7 @@
       </c>
       <c r="C12" s="5">
         <f>C8-C11</f>
-        <v>4269.4890000000005</v>
+        <v>4050.2890000000002</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="35" t="s">
@@ -1877,10 +1886,10 @@
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="58">
         <v>0.83</v>
       </c>
@@ -1888,7 +1897,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="K13" s="99">
+      <c r="K13" s="82">
         <v>44621</v>
       </c>
       <c r="L13" s="10" t="s">
@@ -1920,18 +1929,18 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
       <c r="F15" s="41" t="s">
         <v>82</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="K15" s="99">
+      <c r="K15" s="82">
         <v>44531</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -1949,15 +1958,15 @@
       <c r="B16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="K16" s="99">
+      <c r="K16" s="82">
         <v>44531</v>
       </c>
       <c r="L16" s="10" t="s">
@@ -1975,8 +1984,8 @@
       <c r="B17" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
       <c r="F17" s="40" t="s">
         <v>154</v>
       </c>
@@ -1999,8 +2008,8 @@
       <c r="B18" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
       <c r="F18" s="41" t="s">
         <v>132</v>
       </c>
@@ -2021,8 +2030,8 @@
       <c r="B19" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
       <c r="F19" s="50" t="s">
         <v>133</v>
       </c>
@@ -2040,7 +2049,7 @@
       <c r="S19" s="11"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="K20" s="99">
+      <c r="K20" s="82">
         <v>44409</v>
       </c>
       <c r="L20" s="10" t="s">
@@ -2066,15 +2075,15 @@
       <c r="S21" s="11"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="F22" s="81" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="F22" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="83"/>
+      <c r="G22" s="94"/>
       <c r="K22" s="36"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -2089,18 +2098,18 @@
       <c r="B23" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="F23" s="86" t="s">
+      <c r="D23" s="86"/>
+      <c r="F23" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="85"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="99">
+      <c r="K23" s="82">
         <v>43983</v>
       </c>
       <c r="L23" s="10" t="s">
@@ -2118,14 +2127,14 @@
       <c r="B24" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="91">
         <v>1995</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="F24" s="86" t="s">
+      <c r="D24" s="86"/>
+      <c r="F24" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="85"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="42"/>
       <c r="K24" s="36"/>
       <c r="L24" s="34" t="s">
@@ -2143,14 +2152,14 @@
       <c r="B25" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="89">
         <v>9181</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="F25" s="86" t="s">
+      <c r="D25" s="90"/>
+      <c r="F25" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="85"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="42"/>
       <c r="K25" s="36"/>
       <c r="L25" s="10"/>
@@ -2166,18 +2175,18 @@
       <c r="B26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="89">
         <v>751</v>
       </c>
-      <c r="D26" s="98"/>
-      <c r="F26" s="86" t="s">
+      <c r="D26" s="90"/>
+      <c r="F26" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="85"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="99">
+      <c r="K26" s="82">
         <v>43800</v>
       </c>
       <c r="L26" s="10" t="s">
@@ -2192,13 +2201,20 @@
       <c r="S26" s="11"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="F27" s="86" t="s">
+      <c r="B27" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="81" t="str">
+        <f>'Financial Model'!R1</f>
+        <v>FY21</v>
+      </c>
+      <c r="D27" s="101">
+        <v>44287</v>
+      </c>
+      <c r="F27" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="85"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="42"/>
       <c r="K27" s="38"/>
       <c r="L27" s="39" t="s">
@@ -2216,31 +2232,31 @@
       <c r="B28" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="F28" s="86" t="s">
+      <c r="D28" s="84"/>
+      <c r="F28" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="85"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="42"/>
     </row>
     <row r="29" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="F29" s="86" t="s">
+      <c r="F29" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="85"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="42" t="s">
         <v>84</v>
       </c>
       <c r="X29"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="F30" s="95" t="s">
+      <c r="F30" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="96"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
@@ -2253,17 +2269,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+  <mergeCells count="24">
     <mergeCell ref="K5:S5"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="F5:I5"/>
@@ -2279,6 +2285,15 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="#2 Top shorted share" xr:uid="{A5F7EB24-9A70-4B8F-A878-52204B404267}"/>
@@ -2299,7 +2314,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
